--- a/raw_data/20200818_saline/20200818_Sensor2_Test_11.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_11.xlsx
@@ -1,5224 +1,5640 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34784E37-B8B4-4FD4-BFE1-9FDA598A8AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>9371.676183</v>
+        <v>9371.6761829999996</v>
       </c>
       <c r="B2" s="1">
         <v>2.603243</v>
       </c>
       <c r="C2" s="1">
-        <v>1246.290000</v>
+        <v>1246.29</v>
       </c>
       <c r="D2" s="1">
-        <v>-309.102000</v>
+        <v>-309.10199999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>9382.077326</v>
+        <v>9382.0773260000005</v>
       </c>
       <c r="G2" s="1">
-        <v>2.606133</v>
+        <v>2.6061329999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1271.380000</v>
+        <v>1271.3800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.878000</v>
+        <v>-265.87799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>9392.545355</v>
+        <v>9392.5453550000002</v>
       </c>
       <c r="L2" s="1">
-        <v>2.609040</v>
+        <v>2.6090399999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.260000</v>
+        <v>1306.26</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.051000</v>
+        <v>-203.05099999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>9403.036770</v>
+        <v>9403.0367700000006</v>
       </c>
       <c r="Q2" s="1">
         <v>2.611955</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.550000</v>
+        <v>1317.55</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.894000</v>
+        <v>-184.89400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>9413.617393</v>
+        <v>9413.6173930000004</v>
       </c>
       <c r="V2" s="1">
-        <v>2.614894</v>
+        <v>2.6148940000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.580000</v>
+        <v>1330.58</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.227000</v>
+        <v>-171.227</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>9424.075078</v>
+        <v>9424.0750779999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.617799</v>
+        <v>2.6177990000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.490000</v>
+        <v>1347.49</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.220000</v>
+        <v>-169.22</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>9434.609573</v>
+        <v>9434.6095729999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.620725</v>
+        <v>2.6207250000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.320000</v>
+        <v>1360.32</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.141000</v>
+        <v>-179.14099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>9444.992336</v>
+        <v>9444.9923359999993</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.623609</v>
+        <v>2.6236090000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.870000</v>
+        <v>1380.87</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.492000</v>
+        <v>-209.49199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>9455.583929</v>
+        <v>9455.5839290000004</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.626551</v>
+        <v>2.6265510000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.450000</v>
+        <v>1402.45</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.772000</v>
+        <v>-253.77199999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>9466.586155</v>
+        <v>9466.5861550000009</v>
       </c>
       <c r="AU2" s="1">
         <v>2.629607</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW2" s="1">
-        <v>-314.337000</v>
+        <v>-314.33699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>9478.173700</v>
+        <v>9478.1736999999994</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.632826</v>
+        <v>2.6328260000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.957000</v>
+        <v>-366.95699999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>9489.428908</v>
+        <v>9489.4289079999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.635952</v>
+        <v>2.6359520000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1531.280000</v>
+        <v>1531.28</v>
       </c>
       <c r="BG2" s="1">
-        <v>-617.852000</v>
+        <v>-617.85199999999998</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>9500.449055</v>
+        <v>9500.4490549999991</v>
       </c>
       <c r="BJ2" s="1">
         <v>2.639014</v>
       </c>
       <c r="BK2" s="1">
-        <v>1685.020000</v>
+        <v>1685.02</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1068.540000</v>
+        <v>-1068.54</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>9510.523263</v>
+        <v>9510.5232629999991</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.641812</v>
+        <v>2.6418119999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1979.090000</v>
+        <v>1979.09</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1851.820000</v>
+        <v>-1851.82</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>9520.887169</v>
+        <v>9520.8871689999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.644691</v>
+        <v>2.6446909999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2366.520000</v>
+        <v>2366.52</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2760.480000</v>
+        <v>-2760.48</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>9532.005987</v>
+        <v>9532.0059870000005</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.647779</v>
+        <v>2.6477789999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2855.320000</v>
+        <v>2855.32</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3748.310000</v>
+        <v>-3748.31</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>9542.928389</v>
+        <v>9542.9283890000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.650813</v>
+        <v>2.6508129999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4301.200000</v>
+        <v>4301.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6152.390000</v>
+        <v>-6152.39</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>9372.054172</v>
+        <v>9372.0541720000001</v>
       </c>
       <c r="B3" s="1">
         <v>2.603348</v>
       </c>
       <c r="C3" s="1">
-        <v>1245.970000</v>
+        <v>1245.97</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.829000</v>
+        <v>-308.82900000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>9382.450808</v>
+        <v>9382.4508079999996</v>
       </c>
       <c r="G3" s="1">
         <v>2.606236</v>
       </c>
       <c r="H3" s="1">
-        <v>1271.470000</v>
+        <v>1271.47</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.592000</v>
+        <v>-266.59199999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>9392.927771</v>
+        <v>9392.9277710000006</v>
       </c>
       <c r="L3" s="1">
-        <v>2.609147</v>
+        <v>2.6091470000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.070000</v>
+        <v>1306.07</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.304000</v>
+        <v>-203.304</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>9403.414718</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.612060</v>
+        <v>2.61206</v>
       </c>
       <c r="R3" s="1">
-        <v>1317.570000</v>
+        <v>1317.57</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.792000</v>
+        <v>-184.792</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>9413.999808</v>
+        <v>9413.9998080000005</v>
       </c>
       <c r="V3" s="1">
-        <v>2.615000</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.580000</v>
+        <v>1330.58</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.179000</v>
+        <v>-171.179</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>9424.483249</v>
+        <v>9424.4832490000008</v>
       </c>
       <c r="AA3" s="1">
         <v>2.617912</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.280000</v>
+        <v>1347.28</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.152000</v>
+        <v>-169.15199999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>9434.942389</v>
+        <v>9434.9423889999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.620817</v>
+        <v>2.6208170000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.390000</v>
+        <v>1360.39</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.256000</v>
+        <v>-179.256</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>9445.375733</v>
+        <v>9445.3757330000008</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.623715</v>
+        <v>2.6237149999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.870000</v>
+        <v>1380.87</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.444000</v>
+        <v>-209.44399999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>9455.966839</v>
+        <v>9455.9668390000006</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.626657</v>
+        <v>2.6266569999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.480000</v>
+        <v>1402.48</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.766000</v>
+        <v>-253.76599999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>9466.978489</v>
+        <v>9466.9784889999992</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.629716</v>
+        <v>2.6297160000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.960000</v>
+        <v>1426.96</v>
       </c>
       <c r="AW3" s="1">
-        <v>-314.319000</v>
+        <v>-314.31900000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>9478.850233</v>
+        <v>9478.8502329999992</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.633014</v>
+        <v>2.6330140000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.917000</v>
+        <v>-366.91699999999997</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>9489.872468</v>
+        <v>9489.8724679999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.636076</v>
+        <v>2.6360760000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1531.250000</v>
+        <v>1531.25</v>
       </c>
       <c r="BG3" s="1">
-        <v>-617.791000</v>
+        <v>-617.79100000000005</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>9500.550715</v>
+        <v>9500.5507149999994</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.639042</v>
+        <v>2.6390419999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1684.870000</v>
+        <v>1684.87</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1068.520000</v>
+        <v>-1068.52</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>9510.956767</v>
+        <v>9510.9567669999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.641932</v>
+        <v>2.6419320000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1978.850000</v>
+        <v>1978.85</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1851.890000</v>
+        <v>-1851.89</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>9521.399537</v>
+        <v>9521.3995369999993</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.644833</v>
+        <v>2.6448330000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2366.480000</v>
+        <v>2366.48</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2760.720000</v>
+        <v>-2760.72</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>9532.481682</v>
+        <v>9532.4816819999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.647912</v>
+        <v>2.6479119999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2855.710000</v>
+        <v>2855.71</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3749.820000</v>
+        <v>-3749.82</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>9543.475508</v>
+        <v>9543.4755079999995</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.650965</v>
+        <v>2.6509649999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>4310.220000</v>
+        <v>4310.22</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6139.360000</v>
+        <v>-6139.36</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>9372.399632</v>
+        <v>9372.3996320000006</v>
       </c>
       <c r="B4" s="1">
-        <v>2.603444</v>
+        <v>2.6034440000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1245.630000</v>
+        <v>1245.6300000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.751000</v>
+        <v>-308.75099999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>9382.796024</v>
+        <v>9382.7960239999993</v>
       </c>
       <c r="G4" s="1">
-        <v>2.606332</v>
+        <v>2.6063320000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1271.300000</v>
+        <v>1271.3</v>
       </c>
       <c r="I4" s="1">
-        <v>-266.465000</v>
+        <v>-266.46499999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>9393.274971</v>
+        <v>9393.2749710000007</v>
       </c>
       <c r="L4" s="1">
-        <v>2.609243</v>
+        <v>2.6092430000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.070000</v>
+        <v>1306.07</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.490000</v>
+        <v>-203.49</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>9404.112570</v>
+        <v>9404.1125699999993</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.612253</v>
+        <v>2.6122529999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.630000</v>
+        <v>1317.63</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.798000</v>
+        <v>-184.798</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>9414.683790</v>
+        <v>9414.6837899999991</v>
       </c>
       <c r="V4" s="1">
-        <v>2.615190</v>
+        <v>2.6151900000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.430000</v>
+        <v>1330.43</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.205000</v>
+        <v>-171.20500000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>9424.811105</v>
+        <v>9424.8111050000007</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.618003</v>
+        <v>2.6180029999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.500000</v>
+        <v>1347.5</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.190000</v>
+        <v>-169.19</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>9435.287108</v>
+        <v>9435.2871080000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.620913</v>
+        <v>2.6209129999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.360000</v>
+        <v>1360.36</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.135000</v>
+        <v>-179.13499999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>9445.725413</v>
+        <v>9445.7254130000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.623813</v>
+        <v>2.6238130000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.860000</v>
+        <v>1380.86</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.461000</v>
+        <v>-209.46100000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>9456.627479</v>
+        <v>9456.6274790000007</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.626841</v>
+        <v>2.6268410000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.480000</v>
+        <v>1402.48</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.766000</v>
+        <v>-253.76599999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>9467.663960</v>
+        <v>9467.6639599999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.629907</v>
+        <v>2.6299070000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW4" s="1">
-        <v>-314.336000</v>
+        <v>-314.33600000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>9479.256829</v>
+        <v>9479.2568289999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>2.633127</v>
       </c>
       <c r="BA4" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.947000</v>
+        <v>-366.947</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>9490.234907</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.636176</v>
+        <v>2.6361759999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1531.280000</v>
+        <v>1531.28</v>
       </c>
       <c r="BG4" s="1">
-        <v>-617.804000</v>
+        <v>-617.80399999999997</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>9500.929180</v>
+        <v>9500.9291799999992</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.639147</v>
+        <v>2.6391469999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1684.910000</v>
+        <v>1684.91</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1068.520000</v>
+        <v>-1068.52</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>9511.351086</v>
+        <v>9511.3510860000006</v>
       </c>
       <c r="BO4" s="1">
         <v>2.642042</v>
       </c>
       <c r="BP4" s="1">
-        <v>1978.840000</v>
+        <v>1978.84</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1851.790000</v>
+        <v>-1851.79</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>9521.832581</v>
+        <v>9521.8325810000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.644953</v>
+        <v>2.6449530000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.600000</v>
+        <v>2366.6</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2760.470000</v>
+        <v>-2760.47</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>9532.910690</v>
+        <v>9532.9106900000006</v>
       </c>
       <c r="BY4" s="1">
         <v>2.648031</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2855.680000</v>
+        <v>2855.68</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3748.990000</v>
+        <v>-3748.99</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>9543.998291</v>
+        <v>9543.9982909999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.651111</v>
+        <v>2.6511110000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>4288.710000</v>
+        <v>4288.71</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6138.680000</v>
+        <v>-6138.68</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>9372.742087</v>
+        <v>9372.7420870000005</v>
       </c>
       <c r="B5" s="1">
         <v>2.603539</v>
       </c>
       <c r="C5" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="D5" s="1">
-        <v>-308.917000</v>
+        <v>-308.91699999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>9383.485431</v>
+        <v>9383.4854309999992</v>
       </c>
       <c r="G5" s="1">
-        <v>2.606524</v>
+        <v>2.6065239999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.750000</v>
+        <v>1270.75</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.852000</v>
+        <v>-265.85199999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>9393.967397</v>
+        <v>9393.9673970000003</v>
       </c>
       <c r="L5" s="1">
-        <v>2.609435</v>
+        <v>2.6094349999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.140000</v>
+        <v>1306.1400000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.693000</v>
+        <v>-202.69300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>9404.462267</v>
+        <v>9404.4622670000008</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.612351</v>
+        <v>2.6123509999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.660000</v>
+        <v>1317.66</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.828000</v>
+        <v>-184.828</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>9415.025037</v>
+        <v>9415.0250369999994</v>
       </c>
       <c r="V5" s="1">
-        <v>2.615285</v>
+        <v>2.6152850000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.390000</v>
+        <v>1330.39</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.379000</v>
+        <v>-171.37899999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>9425.158305</v>
+        <v>9425.1583050000008</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.618100</v>
+        <v>2.6181000000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.460000</v>
+        <v>1347.46</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.270000</v>
+        <v>-169.27</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>9435.929959</v>
+        <v>9435.9299589999991</v>
       </c>
       <c r="AF5" s="1">
         <v>2.621092</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.370000</v>
+        <v>1360.37</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.158000</v>
+        <v>-179.15799999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>9446.371732</v>
+        <v>9446.3717319999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.623992</v>
+        <v>2.6239919999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.890000</v>
+        <v>1380.89</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.421000</v>
+        <v>-209.42099999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>9457.069414</v>
+        <v>9457.0694139999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.626964</v>
+        <v>2.6269640000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.440000</v>
+        <v>1402.44</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.772000</v>
+        <v>-253.77199999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>9468.115319</v>
+        <v>9468.1153190000005</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.630032</v>
+        <v>2.6300319999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1427.000000</v>
+        <v>1427</v>
       </c>
       <c r="AW5" s="1">
-        <v>-314.321000</v>
+        <v>-314.32100000000003</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>9479.640112</v>
+        <v>9479.6401119999991</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.633233</v>
+        <v>2.6332330000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.927000</v>
+        <v>-366.92700000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>9490.596521</v>
+        <v>9490.5965209999995</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.636277</v>
+        <v>2.6362770000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1531.240000</v>
+        <v>1531.24</v>
       </c>
       <c r="BG5" s="1">
-        <v>-617.801000</v>
+        <v>-617.80100000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>9501.304123</v>
+        <v>9501.3041229999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.639251</v>
+        <v>2.6392509999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1684.910000</v>
+        <v>1684.91</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1068.540000</v>
+        <v>-1068.54</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>9511.773691</v>
+        <v>9511.7736910000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.642159</v>
+        <v>2.6421589999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1978.620000</v>
+        <v>1978.62</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1852.070000</v>
+        <v>-1852.07</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>9522.679252</v>
+        <v>9522.6792519999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.645189</v>
+        <v>2.6451889999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>2366.820000</v>
+        <v>2366.8200000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2760.690000</v>
+        <v>-2760.69</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>9533.334273</v>
+        <v>9533.3342730000004</v>
       </c>
       <c r="BY5" s="1">
-        <v>2.648148</v>
+        <v>2.6481479999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2854.830000</v>
+        <v>2854.83</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3749.650000</v>
+        <v>-3749.65</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>9544.538402</v>
+        <v>9544.5384020000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.651261</v>
+        <v>2.6512609999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4301.040000</v>
+        <v>4301.04</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6153.030000</v>
+        <v>-6153.03</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>9373.424593</v>
+        <v>9373.4245929999997</v>
       </c>
       <c r="B6" s="1">
         <v>2.603729</v>
       </c>
       <c r="C6" s="1">
-        <v>1246.030000</v>
+        <v>1246.03</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.670000</v>
+        <v>-308.67</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>9383.830647</v>
+        <v>9383.8306470000007</v>
       </c>
       <c r="G6" s="1">
-        <v>2.606620</v>
+        <v>2.6066199999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.760000</v>
+        <v>1270.76</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.168000</v>
+        <v>-266.16800000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>9394.312601</v>
+        <v>9394.3126009999996</v>
       </c>
       <c r="L6" s="1">
         <v>2.609531</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.570000</v>
+        <v>1305.57</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.051000</v>
+        <v>-203.05099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>9404.812412</v>
+        <v>9404.8124119999993</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.612448</v>
+        <v>2.6124480000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.670000</v>
+        <v>1317.67</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.862000</v>
+        <v>-184.86199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>9415.371279</v>
+        <v>9415.3712790000009</v>
       </c>
       <c r="V6" s="1">
-        <v>2.615381</v>
+        <v>2.6153810000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.450000</v>
+        <v>1330.45</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.210000</v>
+        <v>-171.21</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>9425.815007</v>
+        <v>9425.8150069999992</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.618282</v>
+        <v>2.6182820000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.570000</v>
+        <v>1347.57</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.325000</v>
+        <v>-169.32499999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>9436.316307</v>
+        <v>9436.3163069999991</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.621199</v>
+        <v>2.6211989999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.330000</v>
+        <v>1360.33</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.182000</v>
+        <v>-179.18199999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>9446.770980</v>
+        <v>9446.7709799999993</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.624103</v>
+        <v>2.6241029999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.890000</v>
+        <v>1380.89</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.449000</v>
+        <v>-209.44900000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>9457.430006</v>
+        <v>9457.4300060000005</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.627064</v>
+        <v>2.6270639999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.480000</v>
+        <v>1402.48</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.777000</v>
+        <v>-253.77699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>9468.481400</v>
+        <v>9468.4814000000006</v>
       </c>
       <c r="AU6" s="1">
         <v>2.630134</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.980000</v>
+        <v>1426.98</v>
       </c>
       <c r="AW6" s="1">
-        <v>-314.351000</v>
+        <v>-314.351</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>9480.023272</v>
+        <v>9480.0232720000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.633340</v>
+        <v>2.63334</v>
       </c>
       <c r="BA6" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.925000</v>
+        <v>-366.92500000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>9491.007177</v>
+        <v>9491.0071769999995</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.636391</v>
+        <v>2.6363910000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1531.320000</v>
+        <v>1531.32</v>
       </c>
       <c r="BG6" s="1">
-        <v>-617.808000</v>
+        <v>-617.80799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>9501.714314</v>
+        <v>9501.7143140000007</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.639365</v>
+        <v>2.6393650000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1684.870000</v>
+        <v>1684.87</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1068.490000</v>
+        <v>-1068.49</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>9512.174445</v>
+        <v>9512.1744450000006</v>
       </c>
       <c r="BO6" s="1">
         <v>2.642271</v>
       </c>
       <c r="BP6" s="1">
-        <v>1978.760000</v>
+        <v>1978.76</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1851.900000</v>
+        <v>-1851.9</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>9523.111727</v>
+        <v>9523.1117269999995</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.645309</v>
+        <v>2.6453090000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.800000</v>
+        <v>2366.8000000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2760.850000</v>
+        <v>-2760.85</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>9533.753425</v>
+        <v>9533.7534250000008</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.648265</v>
+        <v>2.6482649999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2855.010000</v>
+        <v>2855.01</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3749.710000</v>
+        <v>-3749.71</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>9545.078049</v>
+        <v>9545.0780489999997</v>
       </c>
       <c r="CD6" s="1">
         <v>2.651411</v>
       </c>
       <c r="CE6" s="1">
-        <v>4299.150000</v>
+        <v>4299.1499999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6132.360000</v>
+        <v>-6132.36</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>9373.769796</v>
+        <v>9373.7697960000005</v>
       </c>
       <c r="B7" s="1">
-        <v>2.603825</v>
+        <v>2.6038250000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1245.900000</v>
+        <v>1245.9000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.528000</v>
+        <v>-308.52800000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>9384.174870</v>
+        <v>9384.1748700000007</v>
       </c>
       <c r="G7" s="1">
-        <v>2.606715</v>
+        <v>2.6067149999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1271.130000</v>
+        <v>1271.1300000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-266.109000</v>
+        <v>-266.10899999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>9394.658810</v>
+        <v>9394.6588100000008</v>
       </c>
       <c r="L7" s="1">
-        <v>2.609627</v>
+        <v>2.6096270000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.000000</v>
+        <v>1306</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.999000</v>
+        <v>-202.999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>9405.461674</v>
+        <v>9405.4616740000001</v>
       </c>
       <c r="Q7" s="1">
         <v>2.612628</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.590000</v>
+        <v>1317.59</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.851000</v>
+        <v>-184.851</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>9416.018524</v>
+        <v>9416.0185239999992</v>
       </c>
       <c r="V7" s="1">
         <v>2.615561</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.540000</v>
+        <v>1330.54</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.157000</v>
+        <v>-171.15700000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>9426.203871</v>
+        <v>9426.2038709999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.618390</v>
+        <v>2.6183900000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.690000</v>
+        <v>1347.69</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.201000</v>
+        <v>-169.20099999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>9436.660033</v>
+        <v>9436.6600330000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.621294</v>
+        <v>2.6212939999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.370000</v>
+        <v>1360.37</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.138000</v>
+        <v>-179.13800000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>9447.121187</v>
+        <v>9447.1211870000006</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.624200</v>
+        <v>2.6242000000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.860000</v>
+        <v>1380.86</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.441000</v>
+        <v>-209.441</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>9457.790609</v>
+        <v>9457.7906089999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.627164</v>
+        <v>2.6271640000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.510000</v>
+        <v>1402.51</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.758000</v>
+        <v>-253.75800000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>9468.844934</v>
+        <v>9468.8449340000006</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.630235</v>
+        <v>2.6302349999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW7" s="1">
-        <v>-314.315000</v>
+        <v>-314.315</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>9480.435480</v>
+        <v>9480.4354800000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>2.633454</v>
       </c>
       <c r="BA7" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.950000</v>
+        <v>-366.95</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>9491.316185</v>
+        <v>9491.3161849999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.636477</v>
+        <v>2.6364770000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1531.260000</v>
+        <v>1531.26</v>
       </c>
       <c r="BG7" s="1">
-        <v>-617.828000</v>
+        <v>-617.82799999999997</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>9502.064490</v>
+        <v>9502.0644900000007</v>
       </c>
       <c r="BJ7" s="1">
         <v>2.639462</v>
       </c>
       <c r="BK7" s="1">
-        <v>1684.910000</v>
+        <v>1684.91</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1068.510000</v>
+        <v>-1068.51</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>9512.597036</v>
+        <v>9512.5970359999992</v>
       </c>
       <c r="BO7" s="1">
         <v>2.642388</v>
       </c>
       <c r="BP7" s="1">
-        <v>1978.780000</v>
+        <v>1978.78</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1851.820000</v>
+        <v>-1851.82</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>9523.525391</v>
+        <v>9523.5253909999992</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.645424</v>
+        <v>2.6454240000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>2367.000000</v>
+        <v>2367</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2760.470000</v>
+        <v>-2760.47</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>9534.180944</v>
+        <v>9534.1809439999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.648384</v>
+        <v>2.6483840000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2855.440000</v>
+        <v>2855.44</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3748.980000</v>
+        <v>-3748.98</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>9545.618722</v>
+        <v>9545.6187219999993</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.651561</v>
+        <v>2.6515610000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4285.780000</v>
+        <v>4285.78</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6149.990000</v>
+        <v>-6149.99</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>9374.112035</v>
+        <v>9374.1120350000001</v>
       </c>
       <c r="B8" s="1">
-        <v>2.603920</v>
+        <v>2.60392</v>
       </c>
       <c r="C8" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.856000</v>
+        <v>-308.85599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>9384.818213</v>
+        <v>9384.8182130000005</v>
       </c>
       <c r="G8" s="1">
         <v>2.606894</v>
       </c>
       <c r="H8" s="1">
-        <v>1270.880000</v>
+        <v>1270.8800000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.647000</v>
+        <v>-265.64699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>9395.308073</v>
+        <v>9395.3080730000001</v>
       </c>
       <c r="L8" s="1">
-        <v>2.609808</v>
+        <v>2.6098080000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.980000</v>
+        <v>1305.98</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.094000</v>
+        <v>-203.09399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>9405.856490</v>
+        <v>9405.8564900000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.612738</v>
+        <v>2.6127379999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.530000</v>
+        <v>1317.53</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.793000</v>
+        <v>-184.79300000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>9416.424284</v>
+        <v>9416.4242840000006</v>
       </c>
       <c r="V8" s="1">
-        <v>2.615673</v>
+        <v>2.6156730000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.390000</v>
+        <v>1330.39</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.285000</v>
+        <v>-171.285</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>9426.552062</v>
+        <v>9426.5520620000007</v>
       </c>
       <c r="AA8" s="1">
         <v>2.618487</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.510000</v>
+        <v>1347.51</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.318000</v>
+        <v>-169.31800000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>9437.004257</v>
+        <v>9437.0042570000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.621390</v>
+        <v>2.6213899999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1360.370000</v>
+        <v>1360.37</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.161000</v>
+        <v>-179.161</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>9447.467395</v>
+        <v>9447.4673949999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.624296</v>
+        <v>2.6242960000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.870000</v>
+        <v>1380.87</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.447000</v>
+        <v>-209.447</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>9458.195333</v>
+        <v>9458.1953329999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.627276</v>
+        <v>2.6272760000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.470000</v>
+        <v>1402.47</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.759000</v>
+        <v>-253.75899999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>9469.571574</v>
+        <v>9469.5715739999996</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.630437</v>
+        <v>2.6304370000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.970000</v>
+        <v>1426.97</v>
       </c>
       <c r="AW8" s="1">
-        <v>-314.358000</v>
+        <v>-314.358</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>9480.738504</v>
+        <v>9480.7385040000008</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.633538</v>
+        <v>2.6335380000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.921000</v>
+        <v>-366.92099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>9491.679256</v>
+        <v>9491.6792559999994</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.636578</v>
+        <v>2.6365780000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1531.280000</v>
+        <v>1531.28</v>
       </c>
       <c r="BG8" s="1">
-        <v>-617.778000</v>
+        <v>-617.77800000000002</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>9502.452890</v>
+        <v>9502.4528900000005</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.639570</v>
+        <v>2.63957</v>
       </c>
       <c r="BK8" s="1">
-        <v>1684.800000</v>
+        <v>1684.8</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1068.490000</v>
+        <v>-1068.49</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>9512.990895</v>
+        <v>9512.9908950000008</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.642497</v>
+        <v>2.6424970000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.800000</v>
+        <v>1978.8</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1851.860000</v>
+        <v>-1851.86</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>9523.941535</v>
+        <v>9523.9415349999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.645539</v>
+        <v>2.6455389999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2367.080000</v>
+        <v>2367.08</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2760.780000</v>
+        <v>-2760.78</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>9534.597087</v>
+        <v>9534.5970870000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.648499</v>
+        <v>2.6484990000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2855.310000</v>
+        <v>2855.31</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3748.570000</v>
+        <v>-3748.57</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>9546.156880</v>
+        <v>9546.1568800000005</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.651710</v>
+        <v>2.65171</v>
       </c>
       <c r="CE8" s="1">
-        <v>4309.330000</v>
+        <v>4309.33</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6138.410000</v>
+        <v>-6138.41</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>9374.774227</v>
+        <v>9374.7742269999999</v>
       </c>
       <c r="B9" s="1">
         <v>2.604104</v>
       </c>
       <c r="C9" s="1">
-        <v>1245.490000</v>
+        <v>1245.49</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.759000</v>
+        <v>-308.75900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>9385.208564</v>
+        <v>9385.2085640000005</v>
       </c>
       <c r="G9" s="1">
         <v>2.607002</v>
       </c>
       <c r="H9" s="1">
-        <v>1271.640000</v>
+        <v>1271.6400000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.488000</v>
+        <v>-266.488</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>9395.695447</v>
+        <v>9395.6954470000001</v>
       </c>
       <c r="L9" s="1">
         <v>2.609915</v>
       </c>
       <c r="M9" s="1">
-        <v>1306.110000</v>
+        <v>1306.1099999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.043000</v>
+        <v>-203.04300000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>9406.203689</v>
+        <v>9406.2036889999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.612834</v>
+        <v>2.6128339999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.560000</v>
+        <v>1317.56</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.769000</v>
+        <v>-184.76900000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>9416.757564</v>
+        <v>9416.7575639999995</v>
       </c>
       <c r="V9" s="1">
-        <v>2.615766</v>
+        <v>2.6157659999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.470000</v>
+        <v>1330.47</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.271000</v>
+        <v>-171.27099999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>9426.899261</v>
+        <v>9426.8992610000005</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.618583</v>
+        <v>2.6185830000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.490000</v>
+        <v>1347.49</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.314000</v>
+        <v>-169.31399999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>9437.434785</v>
+        <v>9437.4347849999995</v>
       </c>
       <c r="AF9" s="1">
-        <v>2.621510</v>
+        <v>2.6215099999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.370000</v>
+        <v>1360.37</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.217000</v>
+        <v>-179.21700000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>9447.883042</v>
+        <v>9447.8830419999995</v>
       </c>
       <c r="AK9" s="1">
         <v>2.624412</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.890000</v>
+        <v>1380.89</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.412000</v>
+        <v>-209.41200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>9458.512276</v>
+        <v>9458.5122759999995</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.627365</v>
+        <v>2.6273650000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.510000</v>
+        <v>1402.51</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.730000</v>
+        <v>-253.73</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>9469.960438</v>
+        <v>9469.9604380000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.630545</v>
+        <v>2.6305450000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.950000</v>
+        <v>1426.95</v>
       </c>
       <c r="AW9" s="1">
-        <v>-314.303000</v>
+        <v>-314.303</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>9481.097606</v>
+        <v>9481.0976059999994</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.633638</v>
+        <v>2.6336379999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.902000</v>
+        <v>-366.90199999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>9492.038884</v>
+        <v>9492.0388839999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.636677</v>
+        <v>2.6366770000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1531.280000</v>
+        <v>1531.28</v>
       </c>
       <c r="BG9" s="1">
-        <v>-617.791000</v>
+        <v>-617.79100000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>9502.828826</v>
+        <v>9502.8288260000008</v>
       </c>
       <c r="BJ9" s="1">
         <v>2.639675</v>
       </c>
       <c r="BK9" s="1">
-        <v>1684.770000</v>
+        <v>1684.77</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1068.500000</v>
+        <v>-1068.5</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>9513.411469</v>
+        <v>9513.4114690000006</v>
       </c>
       <c r="BO9" s="1">
         <v>2.642614</v>
       </c>
       <c r="BP9" s="1">
-        <v>1978.460000</v>
+        <v>1978.46</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1851.780000</v>
+        <v>-1851.78</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>9524.358209</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.645655</v>
+        <v>2.6456550000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2367.370000</v>
+        <v>2367.37</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2760.620000</v>
+        <v>-2760.62</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>9535.040544</v>
+        <v>9535.0405439999995</v>
       </c>
       <c r="BY9" s="1">
         <v>2.648622</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2854.530000</v>
+        <v>2854.53</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3748.830000</v>
+        <v>-3748.83</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>9546.698479</v>
+        <v>9546.6984790000006</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.651861</v>
+        <v>2.6518609999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>4286.590000</v>
+        <v>4286.59</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6138.690000</v>
+        <v>-6138.69</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>9375.137268</v>
+        <v>9375.1372680000004</v>
       </c>
       <c r="B10" s="1">
-        <v>2.604205</v>
+        <v>2.6042049999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1245.870000</v>
+        <v>1245.8699999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.429000</v>
+        <v>-308.42899999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>9385.553252</v>
+        <v>9385.5532519999997</v>
       </c>
       <c r="G10" s="1">
-        <v>2.607098</v>
+        <v>2.6070980000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1271.050000</v>
+        <v>1271.05</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.516000</v>
+        <v>-266.51600000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>9396.042646</v>
+        <v>9396.0426459999999</v>
       </c>
       <c r="L10" s="1">
-        <v>2.610012</v>
+        <v>2.6100120000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.070000</v>
+        <v>1306.07</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.188000</v>
+        <v>-203.18799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>9406.554362</v>
+        <v>9406.5543620000008</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.612932</v>
+        <v>2.6129319999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.650000</v>
+        <v>1317.65</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.758000</v>
+        <v>-184.75800000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>9417.169243</v>
+        <v>9417.1692430000003</v>
       </c>
       <c r="V10" s="1">
-        <v>2.615880</v>
+        <v>2.6158800000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.550000</v>
+        <v>1330.55</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.415000</v>
+        <v>-171.41499999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>9427.314909</v>
+        <v>9427.3149090000006</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.618699</v>
+        <v>2.6186989999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.670000</v>
+        <v>1347.67</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.307000</v>
+        <v>-169.30699999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>9437.715024</v>
+        <v>9437.7150239999992</v>
       </c>
       <c r="AF10" s="1">
         <v>2.621588</v>
       </c>
       <c r="AG10" s="1">
-        <v>1360.360000</v>
+        <v>1360.36</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.164000</v>
+        <v>-179.16399999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>9448.170196</v>
+        <v>9448.1701959999991</v>
       </c>
       <c r="AK10" s="1">
         <v>2.624492</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.860000</v>
+        <v>1380.86</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.433000</v>
+        <v>-209.43299999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>9458.873364</v>
+        <v>9458.8733639999991</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.627465</v>
+        <v>2.6274649999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.460000</v>
+        <v>1402.46</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.752000</v>
+        <v>-253.75200000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>9470.327017</v>
+        <v>9470.3270169999996</v>
       </c>
       <c r="AU10" s="1">
         <v>2.630646</v>
       </c>
       <c r="AV10" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW10" s="1">
-        <v>-314.327000</v>
+        <v>-314.327</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>9481.455720</v>
+        <v>9481.4557199999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.633738</v>
+        <v>2.6337380000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.886000</v>
+        <v>-366.88600000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>9492.762520</v>
+        <v>9492.7625200000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.636878</v>
+        <v>2.6368779999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1531.280000</v>
+        <v>1531.28</v>
       </c>
       <c r="BG10" s="1">
-        <v>-617.785000</v>
+        <v>-617.78499999999997</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>9503.577822</v>
+        <v>9503.5778219999993</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.639883</v>
+        <v>2.6398830000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1684.870000</v>
+        <v>1684.87</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1068.480000</v>
+        <v>-1068.48</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>9513.809290</v>
+        <v>9513.8092899999992</v>
       </c>
       <c r="BO10" s="1">
         <v>2.642725</v>
       </c>
       <c r="BP10" s="1">
-        <v>1978.620000</v>
+        <v>1978.62</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1851.860000</v>
+        <v>-1851.86</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>9524.774324</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.645771</v>
+        <v>2.6457709999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2367.600000</v>
+        <v>2367.6</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2760.510000</v>
+        <v>-2760.51</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>9535.465583</v>
+        <v>9535.4655829999992</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.648740</v>
+        <v>2.6487400000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2854.840000</v>
+        <v>2854.84</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3749.440000</v>
+        <v>-3749.44</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>9547.536223</v>
+        <v>9547.5362229999992</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.652093</v>
+        <v>2.6520929999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>4303.010000</v>
+        <v>4303.01</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6134.200000</v>
+        <v>-6134.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>9375.482637</v>
+        <v>9375.4826369999992</v>
       </c>
       <c r="B11" s="1">
         <v>2.604301</v>
       </c>
       <c r="C11" s="1">
-        <v>1245.670000</v>
+        <v>1245.67</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.985000</v>
+        <v>-308.98500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>9385.897015</v>
+        <v>9385.8970150000005</v>
       </c>
       <c r="G11" s="1">
-        <v>2.607194</v>
+        <v>2.6071939999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1271.660000</v>
+        <v>1271.6600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-266.490000</v>
+        <v>-266.49</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>9396.389350</v>
+        <v>9396.3893499999995</v>
       </c>
       <c r="L11" s="1">
-        <v>2.610108</v>
+        <v>2.6101079999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.690000</v>
+        <v>1305.69</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.159000</v>
+        <v>-203.15899999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>9406.962072</v>
+        <v>9406.9620720000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.613045</v>
+        <v>2.6130450000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.620000</v>
+        <v>1317.62</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.791000</v>
+        <v>-184.791</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>9417.458908</v>
+        <v>9417.4589080000005</v>
       </c>
       <c r="V11" s="1">
         <v>2.615961</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.211000</v>
+        <v>-171.21100000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>9427.598161</v>
+        <v>9427.5981609999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.618777</v>
+        <v>2.6187770000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.600000</v>
+        <v>1347.6</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.147000</v>
+        <v>-169.14699999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>9438.055279</v>
+        <v>9438.0552790000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.621682</v>
+        <v>2.6216819999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.390000</v>
+        <v>1360.39</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.176000</v>
+        <v>-179.17599999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>9448.517393</v>
+        <v>9448.5173930000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.624588</v>
+        <v>2.6245880000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.850000</v>
+        <v>1380.85</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.451000</v>
+        <v>-209.45099999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>9459.232502</v>
+        <v>9459.2325020000007</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.627565</v>
+        <v>2.6275650000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.490000</v>
+        <v>1402.49</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.774000</v>
+        <v>-253.774</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>9471.055634</v>
+        <v>9471.0556340000003</v>
       </c>
       <c r="AU11" s="1">
         <v>2.630849</v>
       </c>
       <c r="AV11" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW11" s="1">
-        <v>-314.288000</v>
+        <v>-314.28800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>9482.164998</v>
+        <v>9482.1649980000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.633935</v>
+        <v>2.6339350000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.889000</v>
+        <v>-366.88900000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>9493.148407</v>
+        <v>9493.1484070000006</v>
       </c>
       <c r="BE11" s="1">
-        <v>2.636986</v>
+        <v>2.6369859999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1531.220000</v>
+        <v>1531.22</v>
       </c>
       <c r="BG11" s="1">
-        <v>-617.797000</v>
+        <v>-617.79700000000003</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>9503.954248</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.639987</v>
+        <v>2.6399870000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1684.820000</v>
+        <v>1684.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1068.520000</v>
+        <v>-1068.52</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>9514.232379</v>
+        <v>9514.2323789999991</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.642842</v>
+        <v>2.6428419999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1978.640000</v>
+        <v>1978.64</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1851.810000</v>
+        <v>-1851.81</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>9525.498477</v>
+        <v>9525.4984769999992</v>
       </c>
       <c r="BT11" s="1">
         <v>2.645972</v>
       </c>
       <c r="BU11" s="1">
-        <v>2367.910000</v>
+        <v>2367.91</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2760.440000</v>
+        <v>-2760.44</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>9536.179359</v>
+        <v>9536.1793589999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.648939</v>
+        <v>2.6489389999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2855.100000</v>
+        <v>2855.1</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3748.920000</v>
+        <v>-3748.92</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>9547.777774</v>
+        <v>9547.7777740000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>2.652160</v>
+        <v>2.6521599999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4303.480000</v>
+        <v>4303.4799999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6131.700000</v>
+        <v>-6131.7</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>9375.821745</v>
+        <v>9375.8217449999993</v>
       </c>
       <c r="B12" s="1">
-        <v>2.604395</v>
+        <v>2.6043949999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1245.990000</v>
+        <v>1245.99</v>
       </c>
       <c r="D12" s="1">
-        <v>-308.806000</v>
+        <v>-308.80599999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>9386.308197</v>
+        <v>9386.3081970000003</v>
       </c>
       <c r="G12" s="1">
-        <v>2.607308</v>
+        <v>2.6073080000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.390000</v>
+        <v>1270.3900000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.306000</v>
+        <v>-265.30599999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>9396.817895</v>
+        <v>9396.8178950000001</v>
       </c>
       <c r="L12" s="1">
-        <v>2.610227</v>
+        <v>2.6102270000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.850000</v>
+        <v>1305.8499999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.392000</v>
+        <v>-203.392</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>9407.257688</v>
+        <v>9407.2576879999997</v>
       </c>
       <c r="Q12" s="1">
         <v>2.613127</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.610000</v>
+        <v>1317.61</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.875000</v>
+        <v>-184.875</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>9417.804618</v>
+        <v>9417.8046180000001</v>
       </c>
       <c r="V12" s="1">
-        <v>2.616057</v>
+        <v>2.6160570000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.243000</v>
+        <v>-171.24299999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>9427.945325</v>
+        <v>9427.9453250000006</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.618874</v>
+        <v>2.6188739999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.540000</v>
+        <v>1347.54</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.291000</v>
+        <v>-169.291</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>9438.399534</v>
+        <v>9438.3995340000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.621778</v>
+        <v>2.6217779999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.330000</v>
+        <v>1360.33</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.181000</v>
+        <v>-179.18100000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>9448.866088</v>
+        <v>9448.8660880000007</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.624685</v>
+        <v>2.6246849999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.850000</v>
+        <v>1380.85</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.426000</v>
+        <v>-209.42599999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>9459.960130</v>
+        <v>9459.9601299999995</v>
       </c>
       <c r="AP12" s="1">
         <v>2.627767</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.440000</v>
+        <v>1402.44</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.728000</v>
+        <v>-253.72800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>9471.446948</v>
+        <v>9471.4469480000007</v>
       </c>
       <c r="AU12" s="1">
         <v>2.630957</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.950000</v>
+        <v>1426.95</v>
       </c>
       <c r="AW12" s="1">
-        <v>-314.307000</v>
+        <v>-314.30700000000002</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>9482.531574</v>
+        <v>9482.5315740000005</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.634037</v>
+        <v>2.6340370000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.942000</v>
+        <v>-366.94200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>9493.508037</v>
+        <v>9493.5080369999996</v>
       </c>
       <c r="BE12" s="1">
         <v>2.637086</v>
       </c>
       <c r="BF12" s="1">
-        <v>1531.260000</v>
+        <v>1531.26</v>
       </c>
       <c r="BG12" s="1">
-        <v>-617.751000</v>
+        <v>-617.75099999999998</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>9504.329720</v>
+        <v>9504.3297199999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.640092</v>
+        <v>2.6400920000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1684.800000</v>
+        <v>1684.8</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1068.410000</v>
+        <v>-1068.4100000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>9514.936675</v>
+        <v>9514.9366750000008</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.643038</v>
+        <v>2.6430380000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1978.650000</v>
+        <v>1978.65</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1851.750000</v>
+        <v>-1851.75</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>9525.617019</v>
+        <v>9525.6170189999993</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.646005</v>
+        <v>2.6460050000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>2367.840000</v>
+        <v>2367.84</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2760.210000</v>
+        <v>-2760.21</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>9536.368302</v>
+        <v>9536.3683020000008</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.648991</v>
+        <v>2.6489910000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2854.610000</v>
+        <v>2854.61</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3748.850000</v>
+        <v>-3748.85</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>9548.297118</v>
+        <v>9548.2971180000004</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.652305</v>
+        <v>2.6523050000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4284.620000</v>
+        <v>4284.62</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6134.850000</v>
+        <v>-6134.85</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>9376.241885</v>
+        <v>9376.2418849999995</v>
       </c>
       <c r="B13" s="1">
-        <v>2.604512</v>
+        <v>2.6045120000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1245.790000</v>
+        <v>1245.79</v>
       </c>
       <c r="D13" s="1">
-        <v>-308.545000</v>
+        <v>-308.54500000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>9386.609267</v>
+        <v>9386.6092669999998</v>
       </c>
       <c r="G13" s="1">
-        <v>2.607391</v>
+        <v>2.6073909999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1271.340000</v>
+        <v>1271.3399999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-266.072000</v>
+        <v>-266.072</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>9397.093669</v>
+        <v>9397.0936689999999</v>
       </c>
       <c r="L13" s="1">
-        <v>2.610304</v>
+        <v>2.6103040000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.780000</v>
+        <v>1305.78</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.235000</v>
+        <v>-203.23500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>9407.608393</v>
+        <v>9407.6083930000004</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.613225</v>
+        <v>2.6132249999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.610000</v>
+        <v>1317.61</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.866000</v>
+        <v>-184.86600000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>9418.148345</v>
+        <v>9418.1483449999996</v>
       </c>
       <c r="V13" s="1">
         <v>2.616152</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.570000</v>
+        <v>1330.57</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.265000</v>
+        <v>-171.26499999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>9428.297484</v>
+        <v>9428.2974840000006</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.618972</v>
+        <v>2.6189719999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.590000</v>
+        <v>1347.59</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.383000</v>
+        <v>-169.38300000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>9439.084477</v>
+        <v>9439.0844770000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.621968</v>
+        <v>2.6219679999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.290000</v>
+        <v>1360.29</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.177000</v>
+        <v>-179.17699999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>9449.565441</v>
+        <v>9449.5654410000006</v>
       </c>
       <c r="AK13" s="1">
         <v>2.624879</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.850000</v>
+        <v>1380.85</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.464000</v>
+        <v>-209.464</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>9460.336102</v>
+        <v>9460.3361019999993</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.627871</v>
+        <v>2.6278709999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.470000</v>
+        <v>1402.47</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.768000</v>
+        <v>-253.768</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>9471.814482</v>
+        <v>9471.8144819999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.631060</v>
+        <v>2.6310600000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.970000</v>
+        <v>1426.97</v>
       </c>
       <c r="AW13" s="1">
-        <v>-314.327000</v>
+        <v>-314.327</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>9482.889803</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.634136</v>
+        <v>2.6341359999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.885000</v>
+        <v>-366.88499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>9494.173670</v>
+        <v>9494.1736700000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.637270</v>
+        <v>2.63727</v>
       </c>
       <c r="BF13" s="1">
-        <v>1531.260000</v>
+        <v>1531.26</v>
       </c>
       <c r="BG13" s="1">
-        <v>-617.740000</v>
+        <v>-617.74</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>9504.764747</v>
+        <v>9504.7647469999993</v>
       </c>
       <c r="BJ13" s="1">
         <v>2.640212</v>
       </c>
       <c r="BK13" s="1">
-        <v>1684.880000</v>
+        <v>1684.88</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1068.450000</v>
+        <v>-1068.45</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>9515.046777</v>
+        <v>9515.0467769999996</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.643069</v>
+        <v>2.6430690000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1978.560000</v>
+        <v>1978.56</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1851.590000</v>
+        <v>-1851.59</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>9526.030715</v>
+        <v>9526.0307150000008</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.646120</v>
+        <v>2.6461199999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>2368.280000</v>
+        <v>2368.2800000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2760.410000</v>
+        <v>-2760.41</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>9536.794862</v>
+        <v>9536.7948620000006</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.649110</v>
+        <v>2.6491099999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2854.250000</v>
+        <v>2854.25</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3748.770000</v>
+        <v>-3748.77</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>9548.813917</v>
+        <v>9548.8139169999995</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.652448</v>
+        <v>2.6524480000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4294.490000</v>
+        <v>4294.49</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6131.230000</v>
+        <v>-6131.23</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>9376.521137</v>
+        <v>9376.5211369999997</v>
       </c>
       <c r="B14" s="1">
-        <v>2.604589</v>
+        <v>2.6045889999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1245.740000</v>
+        <v>1245.74</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.814000</v>
+        <v>-308.81400000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>9386.954947</v>
+        <v>9386.9549470000002</v>
       </c>
       <c r="G14" s="1">
-        <v>2.607487</v>
+        <v>2.6074869999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1270.780000</v>
+        <v>1270.78</v>
       </c>
       <c r="I14" s="1">
-        <v>-266.033000</v>
+        <v>-266.03300000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>9397.438421</v>
+        <v>9397.4384210000007</v>
       </c>
       <c r="L14" s="1">
-        <v>2.610400</v>
+        <v>2.6103999999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.080000</v>
+        <v>1306.08</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.030000</v>
+        <v>-203.03</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>9407.956055</v>
+        <v>9407.9560550000006</v>
       </c>
       <c r="Q14" s="1">
         <v>2.613321</v>
       </c>
       <c r="R14" s="1">
-        <v>1317.540000</v>
+        <v>1317.54</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.791000</v>
+        <v>-184.791</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>9418.834808</v>
+        <v>9418.8348079999996</v>
       </c>
       <c r="V14" s="1">
-        <v>2.616343</v>
+        <v>2.6163430000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.370000</v>
+        <v>1330.37</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.230000</v>
+        <v>-171.23</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>9428.992875</v>
+        <v>9428.9928749999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.619165</v>
+        <v>2.6191650000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.480000</v>
+        <v>1347.48</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.990000</v>
+        <v>-168.99</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>9439.433694</v>
+        <v>9439.4336939999994</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.622065</v>
+        <v>2.6220650000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.310000</v>
+        <v>1360.31</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.116000</v>
+        <v>-179.11600000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>9449.912181</v>
+        <v>9449.9121809999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.624976</v>
+        <v>2.6249760000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.860000</v>
+        <v>1380.86</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.429000</v>
+        <v>-209.429</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>9460.699633</v>
+        <v>9460.6996330000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.627972</v>
+        <v>2.6279720000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1402.430000</v>
+        <v>1402.43</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.727000</v>
+        <v>-253.727</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>9472.476178</v>
+        <v>9472.4761780000008</v>
       </c>
       <c r="AU14" s="1">
         <v>2.631243</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.970000</v>
+        <v>1426.97</v>
       </c>
       <c r="AW14" s="1">
-        <v>-314.323000</v>
+        <v>-314.32299999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>9483.556276</v>
+        <v>9483.5562759999993</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.634321</v>
+        <v>2.6343209999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.902000</v>
+        <v>-366.90199999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>9494.627476</v>
+        <v>9494.6274759999997</v>
       </c>
       <c r="BE14" s="1">
         <v>2.637397</v>
       </c>
       <c r="BF14" s="1">
-        <v>1531.230000</v>
+        <v>1531.23</v>
       </c>
       <c r="BG14" s="1">
-        <v>-617.732000</v>
+        <v>-617.73199999999997</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>9505.079671</v>
+        <v>9505.0796709999995</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.640300</v>
+        <v>2.6402999999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1684.770000</v>
+        <v>1684.77</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1068.370000</v>
+        <v>-1068.3699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>9515.470858</v>
+        <v>9515.4708580000006</v>
       </c>
       <c r="BO14" s="1">
         <v>2.643186</v>
       </c>
       <c r="BP14" s="1">
-        <v>1978.460000</v>
+        <v>1978.46</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1851.740000</v>
+        <v>-1851.74</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>9526.459722</v>
+        <v>9526.4597219999996</v>
       </c>
       <c r="BT14" s="1">
         <v>2.646239</v>
       </c>
       <c r="BU14" s="1">
-        <v>2368.210000</v>
+        <v>2368.21</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2759.790000</v>
+        <v>-2759.79</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>9537.240765</v>
+        <v>9537.2407650000005</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.649234</v>
+        <v>2.6492339999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2854.670000</v>
+        <v>2854.67</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3749.000000</v>
+        <v>-3749</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>9549.365500</v>
+        <v>9549.3654999999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.652602</v>
+        <v>2.6526019999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4305.270000</v>
+        <v>4305.2700000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6132.100000</v>
+        <v>-6132.1</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>9376.863872</v>
+        <v>9376.8638719999999</v>
       </c>
       <c r="B15" s="1">
-        <v>2.604684</v>
+        <v>2.6046840000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1245.760000</v>
+        <v>1245.76</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.474000</v>
+        <v>-308.47399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>9387.298276</v>
+        <v>9387.2982759999995</v>
       </c>
       <c r="G15" s="1">
         <v>2.607583</v>
       </c>
       <c r="H15" s="1">
-        <v>1271.340000</v>
+        <v>1271.3399999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-265.722000</v>
+        <v>-265.72199999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>9397.781125</v>
+        <v>9397.7811249999995</v>
       </c>
       <c r="L15" s="1">
-        <v>2.610495</v>
+        <v>2.6104949999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.740000</v>
+        <v>1305.74</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.895000</v>
+        <v>-202.89500000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>9408.653926</v>
+        <v>9408.6539260000009</v>
       </c>
       <c r="Q15" s="1">
         <v>2.613515</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.620000</v>
+        <v>1317.62</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.778000</v>
+        <v>-184.77799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>9419.179033</v>
+        <v>9419.1790330000003</v>
       </c>
       <c r="V15" s="1">
-        <v>2.616439</v>
+        <v>2.6164390000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.530000</v>
+        <v>1330.53</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.284000</v>
+        <v>-171.28399999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>9429.342555</v>
+        <v>9429.3425549999993</v>
       </c>
       <c r="AA15" s="1">
         <v>2.619262</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.420000</v>
+        <v>1347.42</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.105000</v>
+        <v>-169.10499999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>9439.773916</v>
+        <v>9439.7739160000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.622159</v>
+        <v>2.6221589999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.360000</v>
+        <v>1360.36</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.174000</v>
+        <v>-179.17400000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>9450.267279</v>
+        <v>9450.2672789999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.625074</v>
+        <v>2.6250740000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.860000</v>
+        <v>1380.86</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.403000</v>
+        <v>-209.40299999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>9461.360304</v>
+        <v>9461.3603039999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.628156</v>
+        <v>2.6281560000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.460000</v>
+        <v>1402.46</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.728000</v>
+        <v>-253.72800000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>9472.940613</v>
+        <v>9472.9406130000007</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.631372</v>
+        <v>2.6313719999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.960000</v>
+        <v>1426.96</v>
       </c>
       <c r="AW15" s="1">
-        <v>-314.287000</v>
+        <v>-314.28699999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>9483.969475</v>
+        <v>9483.9694749999999</v>
       </c>
       <c r="AZ15" s="1">
         <v>2.634436</v>
       </c>
       <c r="BA15" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.931000</v>
+        <v>-366.93099999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>9494.990053</v>
+        <v>9494.9900529999995</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.637497</v>
+        <v>2.6374970000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1531.200000</v>
+        <v>1531.2</v>
       </c>
       <c r="BG15" s="1">
-        <v>-617.722000</v>
+        <v>-617.72199999999998</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>9505.466550</v>
+        <v>9505.4665499999992</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.640407</v>
+        <v>2.6404070000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1684.780000</v>
+        <v>1684.78</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1068.390000</v>
+        <v>-1068.3900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>9515.866664</v>
+        <v>9515.8666639999992</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.643296</v>
+        <v>2.6432959999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1978.570000</v>
+        <v>1978.57</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1851.630000</v>
+        <v>-1851.63</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>9526.871898</v>
+        <v>9526.8718979999994</v>
       </c>
       <c r="BT15" s="1">
         <v>2.646353</v>
       </c>
       <c r="BU15" s="1">
-        <v>2368.990000</v>
+        <v>2368.9899999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2759.980000</v>
+        <v>-2759.98</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>9537.673275</v>
+        <v>9537.6732749999992</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.649354</v>
+        <v>2.6493540000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2854.930000</v>
+        <v>2854.93</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3747.940000</v>
+        <v>-3747.94</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>9549.898171</v>
+        <v>9549.8981710000007</v>
       </c>
       <c r="CD15" s="1">
         <v>2.652749</v>
       </c>
       <c r="CE15" s="1">
-        <v>4286.970000</v>
+        <v>4286.97</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6132.610000</v>
+        <v>-6132.61</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>9377.205089</v>
+        <v>9377.2050889999991</v>
       </c>
       <c r="B16" s="1">
-        <v>2.604779</v>
+        <v>2.6047790000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1246.160000</v>
+        <v>1246.1600000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.857000</v>
+        <v>-308.85700000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>9387.987121</v>
+        <v>9387.9871210000001</v>
       </c>
       <c r="G16" s="1">
         <v>2.607774</v>
       </c>
       <c r="H16" s="1">
-        <v>1271.200000</v>
+        <v>1271.2</v>
       </c>
       <c r="I16" s="1">
-        <v>-265.819000</v>
+        <v>-265.81900000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>9398.572244</v>
+        <v>9398.5722440000009</v>
       </c>
       <c r="L16" s="1">
-        <v>2.610715</v>
+        <v>2.6107149999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.840000</v>
+        <v>1305.8399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.009000</v>
+        <v>-203.00899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>9409.004133</v>
+        <v>9409.0041330000004</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.613612</v>
+        <v>2.6136119999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.650000</v>
+        <v>1317.65</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.782000</v>
+        <v>-184.78200000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>9419.521271</v>
+        <v>9419.5212709999996</v>
       </c>
       <c r="V16" s="1">
-        <v>2.616534</v>
+        <v>2.6165340000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.510000</v>
+        <v>1330.51</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.281000</v>
+        <v>-171.28100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>9429.689290</v>
+        <v>9429.6892900000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.619358</v>
+        <v>2.6193580000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.520000</v>
+        <v>1347.52</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.326000</v>
+        <v>-169.32599999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>9440.420700</v>
+        <v>9440.4207000000006</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.622339</v>
+        <v>2.6223390000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.350000</v>
+        <v>1360.35</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.116000</v>
+        <v>-179.11600000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>9450.965646</v>
+        <v>9450.9656460000006</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.625268</v>
+        <v>2.6252680000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.890000</v>
+        <v>1380.89</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.437000</v>
+        <v>-209.43700000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>9461.779424</v>
+        <v>9461.7794240000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.628272</v>
+        <v>2.6282719999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.470000</v>
+        <v>1402.47</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.723000</v>
+        <v>-253.72300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>9473.304465</v>
+        <v>9473.3044649999993</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.631473</v>
+        <v>2.6314730000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.970000</v>
+        <v>1426.97</v>
       </c>
       <c r="AW16" s="1">
-        <v>-314.301000</v>
+        <v>-314.30099999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>9484.352354</v>
+        <v>9484.3523540000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.634542</v>
+        <v>2.6345420000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.908000</v>
+        <v>-366.90800000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>9495.348165</v>
+        <v>9495.3481649999994</v>
       </c>
       <c r="BE16" s="1">
         <v>2.637597</v>
       </c>
       <c r="BF16" s="1">
-        <v>1531.230000</v>
+        <v>1531.23</v>
       </c>
       <c r="BG16" s="1">
-        <v>-617.749000</v>
+        <v>-617.74900000000002</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>9505.874295</v>
+        <v>9505.8742949999996</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.640521</v>
+        <v>2.6405210000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1684.790000</v>
+        <v>1684.79</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1068.350000</v>
+        <v>-1068.3499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>9516.290248</v>
+        <v>9516.2902479999993</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.643414</v>
+        <v>2.6434139999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1978.580000</v>
+        <v>1978.58</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1851.490000</v>
+        <v>-1851.49</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>9527.287547</v>
+        <v>9527.2875469999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.646469</v>
+        <v>2.6464690000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>2369.050000</v>
+        <v>2369.0500000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2759.240000</v>
+        <v>-2759.24</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>9538.094912</v>
+        <v>9538.0949120000005</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.649471</v>
+        <v>2.6494710000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2854.120000</v>
+        <v>2854.12</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3748.140000</v>
+        <v>-3748.14</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>9550.415002</v>
+        <v>9550.4150019999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.652893</v>
+        <v>2.6528930000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>4288.820000</v>
+        <v>4288.82</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6147.370000</v>
+        <v>-6147.37</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>9377.888575</v>
+        <v>9377.8885750000009</v>
       </c>
       <c r="B17" s="1">
-        <v>2.604969</v>
+        <v>2.6049690000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.502000</v>
+        <v>-308.50200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>9388.331489</v>
+        <v>9388.3314890000001</v>
       </c>
       <c r="G17" s="1">
-        <v>2.607870</v>
+        <v>2.6078700000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1271.400000</v>
+        <v>1271.4000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-265.814000</v>
+        <v>-265.81400000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>9398.819748</v>
+        <v>9398.8197479999999</v>
       </c>
       <c r="L17" s="1">
-        <v>2.610783</v>
+        <v>2.6107830000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.340000</v>
+        <v>1306.3399999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.167000</v>
+        <v>-203.167</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>9409.352789</v>
+        <v>9409.3527890000005</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.613709</v>
+        <v>2.6137090000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.590000</v>
+        <v>1317.59</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.810000</v>
+        <v>-184.81</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>9420.166070</v>
+        <v>9420.1660699999993</v>
       </c>
       <c r="V17" s="1">
-        <v>2.616713</v>
+        <v>2.6167129999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.420000</v>
+        <v>1330.42</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.376000</v>
+        <v>-171.376</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>9430.340505</v>
+        <v>9430.3405050000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.619539</v>
+        <v>2.6195390000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1347.480000</v>
+        <v>1347.48</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.236000</v>
+        <v>-169.23599999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>9440.803612</v>
+        <v>9440.8036119999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.622445</v>
+        <v>2.6224449999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1360.320000</v>
+        <v>1360.32</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.119000</v>
+        <v>-179.119</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>9451.311854</v>
+        <v>9451.3118539999996</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.625364</v>
+        <v>2.6253639999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.870000</v>
+        <v>1380.87</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.423000</v>
+        <v>-209.423</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>9462.163363</v>
+        <v>9462.1633629999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.628379</v>
+        <v>2.6283789999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.480000</v>
+        <v>1402.48</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.749000</v>
+        <v>-253.749</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>9473.672000</v>
+        <v>9473.6720000000005</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.631576</v>
+        <v>2.6315759999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW17" s="1">
-        <v>-314.296000</v>
+        <v>-314.29599999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>9484.710467</v>
+        <v>9484.7104670000008</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.634642</v>
+        <v>2.6346419999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.911000</v>
+        <v>-366.911</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>9495.761827</v>
+        <v>9495.7618270000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.637712</v>
+        <v>2.6377120000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1531.250000</v>
+        <v>1531.25</v>
       </c>
       <c r="BG17" s="1">
-        <v>-617.694000</v>
+        <v>-617.69399999999996</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>9506.227413</v>
+        <v>9506.2274130000005</v>
       </c>
       <c r="BJ17" s="1">
         <v>2.640619</v>
       </c>
       <c r="BK17" s="1">
-        <v>1684.770000</v>
+        <v>1684.77</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1068.290000</v>
+        <v>-1068.29</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>9516.688569</v>
+        <v>9516.6885689999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.643525</v>
+        <v>2.6435249999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1978.540000</v>
+        <v>1978.54</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1851.450000</v>
+        <v>-1851.45</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>9527.704185</v>
+        <v>9527.7041850000005</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.646584</v>
+        <v>2.6465839999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>2369.290000</v>
+        <v>2369.29</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2759.190000</v>
+        <v>-2759.19</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>9538.517962</v>
+        <v>9538.5179619999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.649588</v>
+        <v>2.6495880000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2854.020000</v>
+        <v>2854.02</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3747.930000</v>
+        <v>-3747.93</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>9550.932331</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.653037</v>
+        <v>2.6530369999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4303.920000</v>
+        <v>4303.92</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6144.560000</v>
+        <v>-6144.56</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>9378.227875</v>
+        <v>9378.2278750000005</v>
       </c>
       <c r="B18" s="1">
-        <v>2.605063</v>
+        <v>2.6050629999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1245.650000</v>
+        <v>1245.6500000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.649000</v>
+        <v>-308.649</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>9388.676096</v>
+        <v>9388.6760959999992</v>
       </c>
       <c r="G18" s="1">
-        <v>2.607966</v>
+        <v>2.6079659999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.920000</v>
+        <v>1270.92</v>
       </c>
       <c r="I18" s="1">
-        <v>-266.245000</v>
+        <v>-266.245</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>9399.472979</v>
+        <v>9399.4729790000001</v>
       </c>
       <c r="L18" s="1">
-        <v>2.610965</v>
+        <v>2.6109650000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.140000</v>
+        <v>1306.1400000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.146000</v>
+        <v>-203.14599999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>9410.005061</v>
+        <v>9410.0050609999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.613890</v>
+        <v>2.61389</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.520000</v>
+        <v>1317.52</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.854000</v>
+        <v>-184.85400000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>9420.553478</v>
+        <v>9420.5534779999998</v>
       </c>
       <c r="V18" s="1">
-        <v>2.616820</v>
+        <v>2.6168200000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.450000</v>
+        <v>1330.45</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.245000</v>
+        <v>-171.245</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>9430.735817</v>
+        <v>9430.7358170000007</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.619649</v>
+        <v>2.6196489999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.560000</v>
+        <v>1347.56</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.250000</v>
+        <v>-169.25</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>9441.152331</v>
+        <v>9441.1523309999993</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.622542</v>
+        <v>2.6225420000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.320000</v>
+        <v>1360.32</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.153000</v>
+        <v>-179.15299999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>9451.674927</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.625465</v>
+        <v>2.6254650000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.880000</v>
+        <v>1380.88</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.435000</v>
+        <v>-209.435</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>9462.522926</v>
+        <v>9462.5229259999996</v>
       </c>
       <c r="AP18" s="1">
         <v>2.628479</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.490000</v>
+        <v>1402.49</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.686000</v>
+        <v>-253.68600000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>9474.081697</v>
+        <v>9474.0816969999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.631689</v>
+        <v>2.6316890000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW18" s="1">
-        <v>-314.296000</v>
+        <v>-314.29599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>9485.137521</v>
+        <v>9485.1375210000006</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.634760</v>
+        <v>2.63476</v>
       </c>
       <c r="BA18" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.877000</v>
+        <v>-366.87700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>9496.068381</v>
+        <v>9496.0683809999991</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.637797</v>
+        <v>2.6377969999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1531.240000</v>
+        <v>1531.24</v>
       </c>
       <c r="BG18" s="1">
-        <v>-617.683000</v>
+        <v>-617.68299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>9506.606397</v>
+        <v>9506.6063969999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.640724</v>
+        <v>2.6407240000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1684.780000</v>
+        <v>1684.78</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1068.340000</v>
+        <v>-1068.3399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>9517.108150</v>
+        <v>9517.10815</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.643641</v>
+        <v>2.6436410000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1978.500000</v>
+        <v>1978.5</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1851.510000</v>
+        <v>-1851.51</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>9528.117353</v>
+        <v>9528.1173529999996</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.646699</v>
+        <v>2.6466989999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2369.290000</v>
+        <v>2369.29</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2758.960000</v>
+        <v>-2758.96</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>9538.971802</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.649714</v>
+        <v>2.6497139999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2854.050000</v>
+        <v>2854.05</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3748.530000</v>
+        <v>-3748.53</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>9551.452137</v>
+        <v>9551.4521370000002</v>
       </c>
       <c r="CD18" s="1">
         <v>2.653181</v>
       </c>
       <c r="CE18" s="1">
-        <v>4289.640000</v>
+        <v>4289.6400000000003</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6129.780000</v>
+        <v>-6129.78</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>9378.570574</v>
+        <v>9378.5705739999994</v>
       </c>
       <c r="B19" s="1">
-        <v>2.605158</v>
+        <v>2.6051579999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1245.890000</v>
+        <v>1245.8900000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.476000</v>
+        <v>-308.476</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>9389.327807</v>
+        <v>9389.3278069999997</v>
       </c>
       <c r="G19" s="1">
-        <v>2.608147</v>
+        <v>2.6081470000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1270.580000</v>
+        <v>1270.58</v>
       </c>
       <c r="I19" s="1">
-        <v>-266.165000</v>
+        <v>-266.16500000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>9399.859858</v>
+        <v>9399.8598579999998</v>
       </c>
       <c r="L19" s="1">
-        <v>2.611072</v>
+        <v>2.6110720000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1306.200000</v>
+        <v>1306.2</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.911000</v>
+        <v>-202.911</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>9410.399379</v>
+        <v>9410.3993790000004</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.614000</v>
+        <v>2.6139999999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.580000</v>
+        <v>1317.58</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.809000</v>
+        <v>-184.809</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>9420.896182</v>
+        <v>9420.8961820000004</v>
       </c>
       <c r="V19" s="1">
-        <v>2.616916</v>
+        <v>2.6169159999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.560000</v>
+        <v>1330.56</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.224000</v>
+        <v>-171.22399999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>9431.083512</v>
+        <v>9431.0835119999992</v>
       </c>
       <c r="AA19" s="1">
         <v>2.619745</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.470000</v>
+        <v>1347.47</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.388000</v>
+        <v>-169.38800000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>9441.499995</v>
+        <v>9441.4999950000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.622639</v>
+        <v>2.6226389999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.320000</v>
+        <v>1360.32</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.139000</v>
+        <v>-179.13900000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>9452.078701</v>
+        <v>9452.0787010000004</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.625577</v>
+        <v>2.6255769999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.860000</v>
+        <v>1380.86</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.412000</v>
+        <v>-209.41200000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>9462.935134</v>
+        <v>9462.9351339999994</v>
       </c>
       <c r="AP19" s="1">
         <v>2.628593</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.500000</v>
+        <v>1402.5</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.697000</v>
+        <v>-253.697</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>9474.398639</v>
+        <v>9474.3986389999991</v>
       </c>
       <c r="AU19" s="1">
         <v>2.631777</v>
       </c>
       <c r="AV19" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW19" s="1">
-        <v>-314.290000</v>
+        <v>-314.29000000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>9485.428672</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.634841</v>
+        <v>2.6348410000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.906000</v>
+        <v>-366.90600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>9496.429970</v>
+        <v>9496.4299699999992</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.637897</v>
+        <v>2.6378970000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1531.200000</v>
+        <v>1531.2</v>
       </c>
       <c r="BG19" s="1">
-        <v>-617.732000</v>
+        <v>-617.73199999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>9506.980340</v>
+        <v>9506.9803400000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>2.640828</v>
       </c>
       <c r="BK19" s="1">
-        <v>1684.730000</v>
+        <v>1684.73</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1068.370000</v>
+        <v>-1068.3699999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>9517.503959</v>
+        <v>9517.5039589999997</v>
       </c>
       <c r="BO19" s="1">
         <v>2.643751</v>
       </c>
       <c r="BP19" s="1">
-        <v>1978.370000</v>
+        <v>1978.37</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1851.560000</v>
+        <v>-1851.56</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>9528.554359</v>
+        <v>9528.5543589999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.646821</v>
+        <v>2.6468210000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2369.720000</v>
+        <v>2369.7199999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2758.440000</v>
+        <v>-2758.44</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>9539.409312</v>
+        <v>9539.4093119999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.649836</v>
+        <v>2.6498360000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2854.860000</v>
+        <v>2854.86</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3748.280000</v>
+        <v>-3748.28</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>9551.990792</v>
+        <v>9551.9907920000005</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.653331</v>
+        <v>2.6533310000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4297.810000</v>
+        <v>4297.8100000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6152.650000</v>
+        <v>-6152.65</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>9379.224301</v>
+        <v>9379.2243010000002</v>
       </c>
       <c r="B20" s="1">
-        <v>2.605340</v>
+        <v>2.60534</v>
       </c>
       <c r="C20" s="1">
-        <v>1245.630000</v>
+        <v>1245.6300000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.771000</v>
+        <v>-308.77100000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>9389.709263</v>
+        <v>9389.7092630000006</v>
       </c>
       <c r="G20" s="1">
-        <v>2.608253</v>
+        <v>2.6082529999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1270.850000</v>
+        <v>1270.8499999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.190000</v>
+        <v>-266.19</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>9400.204616</v>
+        <v>9400.2046160000009</v>
       </c>
       <c r="L20" s="1">
-        <v>2.611168</v>
+        <v>2.6111680000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1306.210000</v>
+        <v>1306.21</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.721000</v>
+        <v>-202.721</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>9410.746216</v>
+        <v>9410.7462159999995</v>
       </c>
       <c r="Q20" s="1">
         <v>2.614096</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.580000</v>
+        <v>1317.58</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.707000</v>
+        <v>-184.70699999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>9421.240405</v>
+        <v>9421.2404050000005</v>
       </c>
       <c r="V20" s="1">
-        <v>2.617011</v>
+        <v>2.6170110000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.580000</v>
+        <v>1330.58</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.105000</v>
+        <v>-171.10499999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>9431.434680</v>
+        <v>9431.4346800000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.619843</v>
+        <v>2.6198429999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.550000</v>
+        <v>1347.55</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.294000</v>
+        <v>-169.29400000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>9441.907244</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.622752</v>
+        <v>2.6227520000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1360.380000</v>
+        <v>1360.38</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.181000</v>
+        <v>-179.18100000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>9452.376764</v>
+        <v>9452.3767640000005</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.625660</v>
+        <v>2.6256599999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.870000</v>
+        <v>1380.87</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.426000</v>
+        <v>-209.42599999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>9463.242655</v>
@@ -5227,1164 +5643,1164 @@
         <v>2.628679</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.450000</v>
+        <v>1402.45</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.767000</v>
+        <v>-253.767</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>9474.765215</v>
+        <v>9474.7652149999994</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.631879</v>
+        <v>2.6318790000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW20" s="1">
-        <v>-314.299000</v>
+        <v>-314.29899999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>9485.788769</v>
+        <v>9485.7887690000007</v>
       </c>
       <c r="AZ20" s="1">
         <v>2.634941</v>
       </c>
       <c r="BA20" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.902000</v>
+        <v>-366.90199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>9496.795489</v>
+        <v>9496.7954890000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.637999</v>
+        <v>2.6379990000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1531.240000</v>
+        <v>1531.24</v>
       </c>
       <c r="BG20" s="1">
-        <v>-617.737000</v>
+        <v>-617.73699999999997</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>9507.753615</v>
+        <v>9507.7536149999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.641043</v>
+        <v>2.6410429999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1684.850000</v>
+        <v>1684.85</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1068.340000</v>
+        <v>-1068.3399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>9517.928053</v>
+        <v>9517.9280529999996</v>
       </c>
       <c r="BO20" s="1">
         <v>2.643869</v>
       </c>
       <c r="BP20" s="1">
-        <v>1978.400000</v>
+        <v>1978.4</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1851.430000</v>
+        <v>-1851.43</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>9528.983864</v>
+        <v>9528.9838639999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>2.646940</v>
+        <v>2.6469399999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>2369.460000</v>
+        <v>2369.46</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2758.200000</v>
+        <v>-2758.2</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>9539.834650</v>
+        <v>9539.8346500000007</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.649954</v>
+        <v>2.6499540000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2854.150000</v>
+        <v>2854.15</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3748.000000</v>
+        <v>-3748</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>9552.532423</v>
+        <v>9552.5324230000006</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.653481</v>
+        <v>2.6534810000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>4300.510000</v>
+        <v>4300.51</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6129.730000</v>
+        <v>-6129.73</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>9379.598292</v>
+        <v>9379.5982920000006</v>
       </c>
       <c r="B21" s="1">
-        <v>2.605444</v>
+        <v>2.6054439999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1245.900000</v>
+        <v>1245.9000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.657000</v>
+        <v>-308.65699999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>9390.054943</v>
+        <v>9390.0549429999992</v>
       </c>
       <c r="G21" s="1">
         <v>2.608349</v>
       </c>
       <c r="H21" s="1">
-        <v>1271.100000</v>
+        <v>1271.0999999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.984000</v>
+        <v>-265.98399999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>9400.549794</v>
+        <v>9400.5497940000005</v>
       </c>
       <c r="L21" s="1">
-        <v>2.611264</v>
+        <v>2.6112639999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.060000</v>
+        <v>1306.06</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.154000</v>
+        <v>-203.154</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>9411.098738</v>
+        <v>9411.0987380000006</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.614194</v>
+        <v>2.6141939999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1317.620000</v>
+        <v>1317.62</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.770000</v>
+        <v>-184.77</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>9421.658533</v>
+        <v>9421.6585329999998</v>
       </c>
       <c r="V21" s="1">
         <v>2.617127</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.410000</v>
+        <v>1330.41</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.225000</v>
+        <v>-171.22499999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>9431.851320</v>
+        <v>9431.8513199999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.619959</v>
+        <v>2.6199590000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.760000</v>
+        <v>1347.76</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.279000</v>
+        <v>-169.279</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>9442.202826</v>
+        <v>9442.2028260000006</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.622834</v>
+        <v>2.6228340000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.320000</v>
+        <v>1360.32</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.116000</v>
+        <v>-179.11600000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>9452.723964</v>
+        <v>9452.7239640000007</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.625757</v>
+        <v>2.6257570000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.850000</v>
+        <v>1380.85</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.377000</v>
+        <v>-209.37700000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>9463.602221</v>
+        <v>9463.6022209999992</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.628778</v>
+        <v>2.6287780000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.430000</v>
+        <v>1402.43</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.739000</v>
+        <v>-253.739</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>9475.128750</v>
+        <v>9475.1287499999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.631980</v>
+        <v>2.63198</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.950000</v>
+        <v>1426.95</v>
       </c>
       <c r="AW21" s="1">
-        <v>-314.294000</v>
+        <v>-314.29399999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>9486.147376</v>
+        <v>9486.1473760000008</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.635041</v>
+        <v>2.6350410000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.871000</v>
+        <v>-366.87099999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>9497.519649</v>
+        <v>9497.5196489999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.638200</v>
+        <v>2.6381999999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1531.260000</v>
+        <v>1531.26</v>
       </c>
       <c r="BG21" s="1">
-        <v>-617.697000</v>
+        <v>-617.697</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>9508.127619</v>
+        <v>9508.1276190000008</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.641147</v>
+        <v>2.6411470000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1684.760000</v>
+        <v>1684.76</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1068.300000</v>
+        <v>-1068.3</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>9518.321861</v>
+        <v>9518.3218610000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.643978</v>
+        <v>2.6439780000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1978.460000</v>
+        <v>1978.46</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1851.380000</v>
+        <v>-1851.38</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>9529.393590</v>
+        <v>9529.3935899999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.647054</v>
+        <v>2.6470539999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>2369.580000</v>
+        <v>2369.58</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2757.340000</v>
+        <v>-2757.34</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>9540.556024</v>
+        <v>9540.5560239999995</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.650154</v>
+        <v>2.6501540000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2854.000000</v>
+        <v>2854</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3748.430000</v>
+        <v>-3748.43</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>9553.374632</v>
+        <v>9553.3746319999991</v>
       </c>
       <c r="CD21" s="1">
         <v>2.653715</v>
       </c>
       <c r="CE21" s="1">
-        <v>4303.360000</v>
+        <v>4303.3599999999997</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6148.050000</v>
+        <v>-6148.05</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>9379.940061</v>
+        <v>9379.9400609999993</v>
       </c>
       <c r="B22" s="1">
-        <v>2.605539</v>
+        <v>2.6055389999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1245.550000</v>
+        <v>1245.55</v>
       </c>
       <c r="D22" s="1">
-        <v>-308.685000</v>
+        <v>-308.685</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>9390.399199</v>
+        <v>9390.3991989999995</v>
       </c>
       <c r="G22" s="1">
         <v>2.608444</v>
       </c>
       <c r="H22" s="1">
-        <v>1271.080000</v>
+        <v>1271.08</v>
       </c>
       <c r="I22" s="1">
-        <v>-265.749000</v>
+        <v>-265.74900000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>9400.971393</v>
+        <v>9400.9713929999998</v>
       </c>
       <c r="L22" s="1">
-        <v>2.611381</v>
+        <v>2.6113810000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.980000</v>
+        <v>1305.98</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.135000</v>
+        <v>-203.13499999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>9411.511875</v>
+        <v>9411.5118750000001</v>
       </c>
       <c r="Q22" s="1">
         <v>2.614309</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.630000</v>
+        <v>1317.63</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.790000</v>
+        <v>-184.79</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>9421.950676</v>
+        <v>9421.9506760000004</v>
       </c>
       <c r="V22" s="1">
-        <v>2.617209</v>
+        <v>2.6172089999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.450000</v>
+        <v>1330.45</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.284000</v>
+        <v>-171.28399999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>9432.121640</v>
+        <v>9432.1216399999994</v>
       </c>
       <c r="AA22" s="1">
         <v>2.620034</v>
       </c>
       <c r="AB22" s="1">
-        <v>1347.410000</v>
+        <v>1347.41</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.350000</v>
+        <v>-169.35</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>9442.547049</v>
+        <v>9442.5470490000007</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.622930</v>
+        <v>2.6229300000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.330000</v>
+        <v>1360.33</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.129000</v>
+        <v>-179.12899999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>9453.074635</v>
+        <v>9453.0746350000009</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.625854</v>
+        <v>2.6258539999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.850000</v>
+        <v>1380.85</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.426000</v>
+        <v>-209.42599999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>9463.965789</v>
+        <v>9463.9657889999999</v>
       </c>
       <c r="AP22" s="1">
         <v>2.628879</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.450000</v>
+        <v>1402.45</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.712000</v>
+        <v>-253.71199999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>9475.851421</v>
+        <v>9475.8514209999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.632181</v>
+        <v>2.6321810000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.960000</v>
+        <v>1426.96</v>
       </c>
       <c r="AW22" s="1">
-        <v>-314.292000</v>
+        <v>-314.29199999999997</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>9486.881455</v>
+        <v>9486.8814550000006</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.635245</v>
+        <v>2.6352449999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.899000</v>
+        <v>-366.899</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>9497.878256</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.638300</v>
+        <v>2.6383000000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1531.210000</v>
+        <v>1531.21</v>
       </c>
       <c r="BG22" s="1">
-        <v>-617.707000</v>
+        <v>-617.70699999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>9508.502104</v>
+        <v>9508.5021039999992</v>
       </c>
       <c r="BJ22" s="1">
         <v>2.641251</v>
       </c>
       <c r="BK22" s="1">
-        <v>1684.830000</v>
+        <v>1684.83</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1068.330000</v>
+        <v>-1068.33</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>9518.742470</v>
+        <v>9518.7424699999992</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.644095</v>
+        <v>2.6440950000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1978.470000</v>
+        <v>1978.47</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1851.260000</v>
+        <v>-1851.26</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>9530.132598</v>
+        <v>9530.1325980000001</v>
       </c>
       <c r="BT22" s="1">
         <v>2.647259</v>
       </c>
       <c r="BU22" s="1">
-        <v>2369.290000</v>
+        <v>2369.29</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2757.130000</v>
+        <v>-2757.13</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>9540.680519</v>
+        <v>9540.6805189999995</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.650189</v>
+        <v>2.6501890000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2853.880000</v>
+        <v>2853.88</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3748.690000</v>
+        <v>-3748.69</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>9553.610727</v>
+        <v>9553.6107269999993</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.653781</v>
+        <v>2.6537809999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4305.170000</v>
+        <v>4305.17</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6148.000000</v>
+        <v>-6148</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>9380.283755</v>
+        <v>9380.2837550000004</v>
       </c>
       <c r="B23" s="1">
-        <v>2.605634</v>
+        <v>2.6056339999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>1246.040000</v>
+        <v>1246.04</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.632000</v>
+        <v>-308.63200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>9390.814672</v>
+        <v>9390.8146720000004</v>
       </c>
       <c r="G23" s="1">
-        <v>2.608560</v>
+        <v>2.6085600000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1271.460000</v>
+        <v>1271.46</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.338000</v>
+        <v>-265.33800000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>9401.241218</v>
+        <v>9401.2412179999992</v>
       </c>
       <c r="L23" s="1">
         <v>2.611456</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.250000</v>
+        <v>1306.25</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.286000</v>
+        <v>-203.286</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>9411.802567</v>
+        <v>9411.8025670000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.614390</v>
+        <v>2.6143900000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.650000</v>
+        <v>1317.65</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.793000</v>
+        <v>-184.79300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>9422.293908</v>
+        <v>9422.2939079999996</v>
       </c>
       <c r="V23" s="1">
-        <v>2.617304</v>
+        <v>2.6173039999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.540000</v>
+        <v>1330.54</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.250000</v>
+        <v>-171.25</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>9432.480742</v>
+        <v>9432.4807419999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.620134</v>
+        <v>2.6201340000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.470000</v>
+        <v>1347.47</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.220000</v>
+        <v>-169.22</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>9442.892265</v>
+        <v>9442.8922650000004</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.623026</v>
+        <v>2.6230259999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1360.320000</v>
+        <v>1360.32</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.114000</v>
+        <v>-179.114</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>9453.772010</v>
+        <v>9453.7720100000006</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.626048</v>
+        <v>2.6260479999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.870000</v>
+        <v>1380.87</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.401000</v>
+        <v>-209.40100000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>9464.683500</v>
+        <v>9464.6834999999992</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.629079</v>
+        <v>2.6290789999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1402.480000</v>
+        <v>1402.48</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.728000</v>
+        <v>-253.72800000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>9476.248220</v>
+        <v>9476.2482199999995</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.632291</v>
+        <v>2.6322909999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.960000</v>
+        <v>1426.96</v>
       </c>
       <c r="AW23" s="1">
-        <v>-314.281000</v>
+        <v>-314.28100000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>9487.242046</v>
+        <v>9487.2420459999994</v>
       </c>
       <c r="AZ23" s="1">
         <v>2.635345</v>
       </c>
       <c r="BA23" s="1">
-        <v>1446.230000</v>
+        <v>1446.23</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.903000</v>
+        <v>-366.90300000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>9498.238245</v>
+        <v>9498.2382450000005</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.638400</v>
+        <v>2.6383999999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1531.220000</v>
+        <v>1531.22</v>
       </c>
       <c r="BG23" s="1">
-        <v>-617.656000</v>
+        <v>-617.65599999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>9509.179634</v>
+        <v>9509.1796340000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.641439</v>
+        <v>2.6414390000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1684.730000</v>
+        <v>1684.73</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1068.280000</v>
+        <v>-1068.28</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>9519.453257</v>
+        <v>9519.4532569999992</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.644293</v>
+        <v>2.6442929999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1978.520000</v>
+        <v>1978.52</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1851.360000</v>
+        <v>-1851.36</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>9530.252631</v>
+        <v>9530.2526309999994</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.647292</v>
+        <v>2.6472920000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>2369.690000</v>
+        <v>2369.69</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2756.370000</v>
+        <v>-2756.37</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>9541.129431</v>
+        <v>9541.1294309999994</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.650314</v>
+        <v>2.6503139999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2854.810000</v>
+        <v>2854.81</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3748.070000</v>
+        <v>-3748.07</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>9554.129046</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.653925</v>
+        <v>2.6539250000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4303.970000</v>
+        <v>4303.97</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6130.710000</v>
+        <v>-6130.71</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>9380.756444</v>
+        <v>9380.7564440000006</v>
       </c>
       <c r="B24" s="1">
         <v>2.605766</v>
       </c>
       <c r="C24" s="1">
-        <v>1246.400000</v>
+        <v>1246.4000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.461000</v>
+        <v>-308.46100000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>9391.095053</v>
+        <v>9391.0950529999991</v>
       </c>
       <c r="G24" s="1">
         <v>2.608638</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.580000</v>
+        <v>1270.58</v>
       </c>
       <c r="I24" s="1">
-        <v>-266.163000</v>
+        <v>-266.16300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>9401.585935</v>
+        <v>9401.5859349999992</v>
       </c>
       <c r="L24" s="1">
-        <v>2.611552</v>
+        <v>2.6115520000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.350000</v>
+        <v>1306.3499999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.800000</v>
+        <v>-202.8</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>9412.154231</v>
+        <v>9412.1542310000004</v>
       </c>
       <c r="Q24" s="1">
         <v>2.614487</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.560000</v>
+        <v>1317.56</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.872000</v>
+        <v>-184.87200000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>9422.636643</v>
+        <v>9422.6366429999998</v>
       </c>
       <c r="V24" s="1">
-        <v>2.617399</v>
+        <v>2.6173989999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.450000</v>
+        <v>1330.45</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.224000</v>
+        <v>-171.22399999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>9432.829430</v>
+        <v>9432.8294299999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.620230</v>
+        <v>2.6202299999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1347.440000</v>
+        <v>1347.44</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.310000</v>
+        <v>-169.31</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>9443.577769</v>
+        <v>9443.5777689999995</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.623216</v>
+        <v>2.6232160000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.330000</v>
+        <v>1360.33</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.178000</v>
+        <v>-179.178</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>9454.117760</v>
+        <v>9454.1177599999992</v>
       </c>
       <c r="AK24" s="1">
         <v>2.626144</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.880000</v>
+        <v>1380.88</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.398000</v>
+        <v>-209.398</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>9465.046076</v>
+        <v>9465.0460760000005</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.629179</v>
+        <v>2.6291790000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.480000</v>
+        <v>1402.48</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.718000</v>
+        <v>-253.71799999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>9476.611292</v>
+        <v>9476.6112919999996</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.632392</v>
+        <v>2.6323919999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.980000</v>
+        <v>1426.98</v>
       </c>
       <c r="AW24" s="1">
-        <v>-314.298000</v>
+        <v>-314.298</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>9487.934494</v>
+        <v>9487.9344939999992</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.635537</v>
+        <v>2.6355369999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.853000</v>
+        <v>-366.85300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>9498.903023</v>
+        <v>9498.9030230000008</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.638584</v>
+        <v>2.6385839999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1531.240000</v>
+        <v>1531.24</v>
       </c>
       <c r="BG24" s="1">
-        <v>-617.681000</v>
+        <v>-617.68100000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>9509.286274</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.641468</v>
+        <v>2.6414680000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1684.780000</v>
+        <v>1684.78</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1068.310000</v>
+        <v>-1068.31</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>9519.562851</v>
+        <v>9519.5628510000006</v>
       </c>
       <c r="BO24" s="1">
         <v>2.644323</v>
       </c>
       <c r="BP24" s="1">
-        <v>1978.580000</v>
+        <v>1978.58</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1851.300000</v>
+        <v>-1851.3</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>9530.664806</v>
+        <v>9530.6648060000007</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.647407</v>
+        <v>2.6474069999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>2369.410000</v>
+        <v>2369.41</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2756.040000</v>
+        <v>-2756.04</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>9541.563932</v>
+        <v>9541.5639319999991</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.650434</v>
+        <v>2.6504340000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2854.790000</v>
+        <v>2854.79</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3747.650000</v>
+        <v>-3747.65</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>9554.649349</v>
+        <v>9554.6493489999993</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.654069</v>
+        <v>2.6540689999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>4287.440000</v>
+        <v>4287.4399999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6132.960000</v>
+        <v>-6132.96</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>9380.983612</v>
       </c>
@@ -6392,512 +6808,513 @@
         <v>2.605829</v>
       </c>
       <c r="C25" s="1">
-        <v>1245.660000</v>
+        <v>1245.6600000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-308.798000</v>
+        <v>-308.798</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>9391.440308</v>
+        <v>9391.4403079999993</v>
       </c>
       <c r="G25" s="1">
         <v>2.608733</v>
       </c>
       <c r="H25" s="1">
-        <v>1271.530000</v>
+        <v>1271.53</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.444000</v>
+        <v>-266.44400000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>9401.931152</v>
+        <v>9401.9311519999992</v>
       </c>
       <c r="L25" s="1">
-        <v>2.611648</v>
+        <v>2.6116480000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1306.030000</v>
+        <v>1306.03</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.436000</v>
+        <v>-203.43600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>9412.499942</v>
+        <v>9412.4999420000004</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.614583</v>
+        <v>2.6145830000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.510000</v>
+        <v>1317.51</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.783000</v>
+        <v>-184.78299999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>9423.321651</v>
+        <v>9423.3216510000002</v>
       </c>
       <c r="V25" s="1">
-        <v>2.617589</v>
+        <v>2.6175890000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.211000</v>
+        <v>-171.21100000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>9433.522869</v>
+        <v>9433.5228690000004</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.620423</v>
+        <v>2.6204230000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1347.330000</v>
+        <v>1347.33</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.244000</v>
+        <v>-169.244</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>9443.919508</v>
+        <v>9443.9195080000009</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.623311</v>
+        <v>2.6233110000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.380000</v>
+        <v>1360.38</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.119000</v>
+        <v>-179.119</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>9454.469919</v>
+        <v>9454.4699189999992</v>
       </c>
       <c r="AK25" s="1">
         <v>2.626242</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.870000</v>
+        <v>1380.87</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.398000</v>
+        <v>-209.398</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>9465.405179</v>
+        <v>9465.4051789999994</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.629279</v>
+        <v>2.6292789999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.450000</v>
+        <v>1402.45</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.717000</v>
+        <v>-253.71700000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>9477.283868</v>
+        <v>9477.2838680000004</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.632579</v>
+        <v>2.6325789999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.950000</v>
+        <v>1426.95</v>
       </c>
       <c r="AW25" s="1">
-        <v>-314.254000</v>
+        <v>-314.25400000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>9488.341214</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.635650</v>
+        <v>2.63565</v>
       </c>
       <c r="BA25" s="1">
-        <v>1446.240000</v>
+        <v>1446.24</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.906000</v>
+        <v>-366.90600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>9499.357853</v>
+        <v>9499.3578529999995</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.638711</v>
+        <v>2.6387109999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1531.190000</v>
+        <v>1531.19</v>
       </c>
       <c r="BG25" s="1">
-        <v>-617.692000</v>
+        <v>-617.69200000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>9509.655760</v>
+        <v>9509.6557599999996</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.641571</v>
+        <v>2.6415709999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1684.730000</v>
+        <v>1684.73</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1068.250000</v>
+        <v>-1068.25</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>9519.986931</v>
+        <v>9519.9869309999995</v>
       </c>
       <c r="BO25" s="1">
         <v>2.644441</v>
       </c>
       <c r="BP25" s="1">
-        <v>1978.390000</v>
+        <v>1978.39</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1851.250000</v>
+        <v>-1851.25</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>9531.095829</v>
+        <v>9531.0958289999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.647527</v>
+        <v>2.6475270000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2368.780000</v>
+        <v>2368.7800000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2755.820000</v>
+        <v>-2755.82</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>9541.985031</v>
+        <v>9541.9850310000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.650551</v>
+        <v>2.6505510000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2854.220000</v>
+        <v>2854.22</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3747.260000</v>
+        <v>-3747.26</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>9555.168166</v>
+        <v>9555.1681659999995</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.654213</v>
+        <v>2.6542129999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4291.330000</v>
+        <v>4291.33</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6147.520000</v>
+        <v>-6147.52</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>9381.325850</v>
+        <v>9381.3258499999993</v>
       </c>
       <c r="B26" s="1">
-        <v>2.605924</v>
+        <v>2.6059239999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1245.810000</v>
+        <v>1245.81</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.605000</v>
+        <v>-308.60500000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>9391.786973</v>
+        <v>9391.7869730000002</v>
       </c>
       <c r="G26" s="1">
-        <v>2.608830</v>
+        <v>2.6088300000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.821000</v>
+        <v>-265.82100000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>9402.625054</v>
+        <v>9402.6250540000001</v>
       </c>
       <c r="L26" s="1">
-        <v>2.611840</v>
+        <v>2.6118399999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.980000</v>
+        <v>1305.98</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.803000</v>
+        <v>-202.803</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>9413.196784</v>
+        <v>9413.1967839999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.614777</v>
+        <v>2.6147770000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.520000</v>
+        <v>1317.52</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.753000</v>
+        <v>-184.75299999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>9423.668355</v>
+        <v>9423.6683549999998</v>
       </c>
       <c r="V26" s="1">
         <v>2.617686</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.490000</v>
+        <v>1330.49</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.188000</v>
+        <v>-171.18799999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>9433.873508</v>
+        <v>9433.8735080000006</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.620520</v>
+        <v>2.62052</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.570000</v>
+        <v>1347.57</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.317000</v>
+        <v>-169.31700000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>9444.264728</v>
+        <v>9444.2647280000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.623407</v>
+        <v>2.6234069999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.320000</v>
+        <v>1360.32</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.120000</v>
+        <v>-179.12</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>9455.121656</v>
+        <v>9455.1216559999993</v>
       </c>
       <c r="AK26" s="1">
         <v>2.626423</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.890000</v>
+        <v>1380.89</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.388000</v>
+        <v>-209.38800000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>9466.059930</v>
+        <v>9466.0599299999994</v>
       </c>
       <c r="AP26" s="1">
         <v>2.629461</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.430000</v>
+        <v>1402.43</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.710000</v>
+        <v>-253.71</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>9477.741212</v>
+        <v>9477.7412120000008</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.632706</v>
+        <v>2.6327060000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.950000</v>
+        <v>1426.95</v>
       </c>
       <c r="AW26" s="1">
-        <v>-314.251000</v>
+        <v>-314.25099999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>9488.701276</v>
+        <v>9488.7012759999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.635750</v>
+        <v>2.6357499999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.833000</v>
+        <v>-366.83300000000003</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>9499.721897</v>
+        <v>9499.7218969999994</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.638812</v>
+        <v>2.6388120000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1531.180000</v>
+        <v>1531.18</v>
       </c>
       <c r="BG26" s="1">
-        <v>-617.713000</v>
+        <v>-617.71299999999997</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>9510.032720</v>
+        <v>9510.0327199999992</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.641676</v>
+        <v>2.6416759999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1684.760000</v>
+        <v>1684.76</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1068.280000</v>
+        <v>-1068.28</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>9520.387239</v>
+        <v>9520.3872389999997</v>
       </c>
       <c r="BO26" s="1">
         <v>2.644552</v>
       </c>
       <c r="BP26" s="1">
-        <v>1978.440000</v>
+        <v>1978.44</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1851.100000</v>
+        <v>-1851.1</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>9531.522883</v>
+        <v>9531.5228829999996</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.647645</v>
+        <v>2.6476449999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>2368.760000</v>
+        <v>2368.7600000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2755.310000</v>
+        <v>-2755.31</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>9542.406128</v>
+        <v>9542.4061280000005</v>
       </c>
       <c r="BY26" s="1">
         <v>2.650668</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2854.120000</v>
+        <v>2854.12</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3747.800000</v>
+        <v>-3747.8</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>9555.684538</v>
+        <v>9555.6845379999995</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.654357</v>
+        <v>2.6543570000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4304.470000</v>
+        <v>4304.47</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6140.480000</v>
+        <v>-6140.48</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>